--- a/biology/Zoologie/Caniche_(film)/Caniche_(film).xlsx
+++ b/biology/Zoologie/Caniche_(film)/Caniche_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caniche est un drame espagnol réalisé par Bigas Luna, sorti en 1979.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angel et sa sœur Eloisa vivent dans une grande maison héritée d'une vieille tante récemment décédée. Petit à petit, une étrange relation se met en place entre eux deux et Dani, un caniche un peu trop présent...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Caniche
 Réalisation et scénario : Bigas Luna
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Àngel Jové : Angel
 Consol Tura : Eloisa
@@ -614,7 +632,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix de l'Âge d'or 1981</t>
         </is>
